--- a/ReportCard.xlsx
+++ b/ReportCard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a6e239faec08fd6/Documents/ACCP Prime 2.0 Assignments/MSOffice Assignments/Excel Assignments/Report Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{19DA431D-9724-475E-8851-368101935DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7F0418-3399-45AB-9CB9-14B5D245FF2A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{19DA431D-9724-475E-8851-368101935DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E1275D-7211-46E3-9AB0-5701A251ACAC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{546055CE-919B-432A-8417-76AA400878D8}"/>
   </bookViews>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -167,18 +178,12 @@
     <t xml:space="preserve">Syed Ali </t>
   </si>
   <si>
-    <t>Mumtaz Ahmed</t>
-  </si>
-  <si>
     <t>Muhammad Talhah</t>
   </si>
   <si>
     <t>Hamid Sheikh</t>
   </si>
   <si>
-    <t>Muhammad Farhan</t>
-  </si>
-  <si>
     <t>Khizar Saeed</t>
   </si>
   <si>
@@ -240,6 +245,39 @@
   </si>
   <si>
     <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Promoted to</t>
+  </si>
+  <si>
+    <t>Class 10</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>Zeeshan</t>
+  </si>
+  <si>
+    <t>Aqsa Asad</t>
+  </si>
+  <si>
+    <t>Asad Irshad</t>
   </si>
 </sst>
 </file>
@@ -317,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,18 +381,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -502,21 +552,6 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
@@ -546,21 +581,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -568,217 +588,6 @@
         <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -947,151 +756,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,51 +904,163 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1162,6 +1072,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAEAEA"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FF808080"/>
       <color rgb="FF194997"/>
       <color rgb="FF4B327E"/>
     </mruColors>
@@ -2261,13 +2174,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2284,8 +2197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="76200"/>
-          <a:ext cx="5943600" cy="6819900"/>
+          <a:off x="57152" y="76200"/>
+          <a:ext cx="6572248" cy="6829425"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -2582,10 +2495,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>94591</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485116</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88407</xdr:rowOff>
+      <xdr:rowOff>78882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1374836" cy="512193"/>
     <xdr:sp macro="" textlink="">
@@ -2601,7 +2514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4959510" y="170342"/>
+          <a:off x="5609566" y="164607"/>
           <a:ext cx="1374836" cy="512193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2650,13 +2563,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>434511</xdr:colOff>
+      <xdr:colOff>244011</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>185998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>148510</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529510</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>96139</xdr:rowOff>
     </xdr:to>
@@ -2690,8 +2603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5166285" y="267933"/>
-          <a:ext cx="287547" cy="299335"/>
+          <a:off x="5368461" y="271723"/>
+          <a:ext cx="285499" cy="291141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2886,15 +2799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>754820</xdr:colOff>
+      <xdr:colOff>49970</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>74399</xdr:rowOff>
+      <xdr:rowOff>45824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1070775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>20483</xdr:rowOff>
+      <xdr:colOff>365925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,7 +2839,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4641020" y="6560924"/>
+          <a:off x="4269545" y="6541874"/>
           <a:ext cx="315955" cy="327084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2994,15 +2907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1060426</xdr:colOff>
+      <xdr:colOff>355576</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>128855</xdr:rowOff>
+      <xdr:rowOff>81230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88897</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>10241</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126997</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3020,8 +2933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4946626" y="6615380"/>
-          <a:ext cx="2590821" cy="262386"/>
+          <a:off x="4575151" y="6577280"/>
+          <a:ext cx="2466996" cy="262386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,6 +2973,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3360,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAF1C9C-71B5-41AA-9698-37FA27A37461}">
-  <dimension ref="B1:S21"/>
+  <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,995 +3301,1101 @@
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="60" t="s">
+      <c r="O5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="S5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="63"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="84">
+    <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="80"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="81"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>35</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="38">
-        <v>10</v>
-      </c>
-      <c r="G7" s="38">
-        <v>63</v>
-      </c>
-      <c r="H7" s="38">
-        <v>80</v>
-      </c>
-      <c r="I7" s="38">
-        <v>36</v>
-      </c>
-      <c r="J7" s="38">
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="38">
-        <v>40</v>
-      </c>
-      <c r="L7" s="38">
-        <v>72</v>
-      </c>
-      <c r="M7" s="38">
-        <v>79</v>
-      </c>
-      <c r="N7" s="38">
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
         <v>700</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="1">
         <f>SUM(G7,H7,I7,J7,K7,L7,M7)</f>
-        <v>470</v>
-      </c>
-      <c r="P7" s="39">
+        <v>700</v>
+      </c>
+      <c r="P7" s="79">
         <f>O7/N7*100</f>
-        <v>67.142857142857139</v>
-      </c>
-      <c r="Q7" s="38" t="str">
-        <f>IF(P7&gt;=80, "A+",IF(P7&gt;=70,"A",IF(P7&gt;=60,"B",IF(P7&gt;=50,"C",IF(P7&gt;=40,"D","F")))))</f>
-        <v>B</v>
-      </c>
-      <c r="R7" s="38" t="str">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="1" t="str">
         <f>IF(P7&gt;=40, "PASSED","FAILED")</f>
         <v>PASSED</v>
       </c>
-      <c r="S7" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="56">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
         <v>36</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="33">
-        <v>10</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
         <v>95</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="1">
+        <v>93</v>
+      </c>
+      <c r="I8" s="1">
+        <v>93</v>
+      </c>
+      <c r="J8" s="1">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="33">
-        <v>71</v>
-      </c>
-      <c r="J8" s="33">
-        <v>85</v>
-      </c>
-      <c r="K8" s="33">
-        <v>69</v>
-      </c>
-      <c r="L8" s="33">
-        <v>93</v>
-      </c>
-      <c r="M8" s="33">
-        <v>95</v>
-      </c>
-      <c r="N8" s="33">
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>98</v>
+      </c>
+      <c r="N8" s="1">
         <v>700</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="1">
         <f t="shared" ref="O8:O20" si="0">SUM(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>608</v>
-      </c>
-      <c r="P8" s="35">
+        <v>668</v>
+      </c>
+      <c r="P8" s="3">
         <f t="shared" ref="P8:P21" si="1">O8/N8*100</f>
-        <v>86.857142857142861</v>
-      </c>
-      <c r="Q8" s="33" t="str">
+        <v>95.428571428571431</v>
+      </c>
+      <c r="Q8" s="1" t="str">
         <f t="shared" ref="Q8:Q21" si="2">IF(P8&gt;=80, "A+",IF(P8&gt;=70,"A",IF(P8&gt;=60,"B",IF(P8&gt;=50,"C",IF(P8&gt;=40,"D","F")))))</f>
         <v>A+</v>
       </c>
-      <c r="R8" s="33" t="str">
-        <f t="shared" ref="R8:R21" si="3">IF(P8&gt;=40, "PASSED","FAILED")</f>
+      <c r="R8" s="1" t="str">
+        <f t="shared" ref="R8:T21" si="3">IF(P8&gt;=40, "PASSED","FAILED")</f>
         <v>PASSED</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="56">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
         <v>37</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1">
+        <v>79</v>
+      </c>
+      <c r="K9" s="1">
+        <v>94</v>
+      </c>
+      <c r="L9" s="1">
+        <v>98</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>700</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>92.714285714285722</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="33">
-        <v>10</v>
-      </c>
-      <c r="G9" s="33">
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>89</v>
+      </c>
+      <c r="H10" s="1">
+        <v>83</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1">
+        <v>85</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>700</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>90.285714285714278</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>81</v>
+      </c>
+      <c r="H11" s="1">
+        <v>93</v>
+      </c>
+      <c r="I11" s="1">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1">
+        <v>79</v>
+      </c>
+      <c r="L11" s="1">
+        <v>91</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>700</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="1"/>
+        <v>85.571428571428569</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>82</v>
+      </c>
+      <c r="J12" s="1">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1">
+        <v>86</v>
+      </c>
+      <c r="L12" s="1">
+        <v>77</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>700</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1">
+        <v>85</v>
+      </c>
+      <c r="N13" s="1">
+        <v>700</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
+        <v>76.285714285714292</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S13" s="1">
+        <v>7</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1">
+        <v>54</v>
+      </c>
+      <c r="J14" s="1">
+        <v>64</v>
+      </c>
+      <c r="K14" s="1">
+        <v>47</v>
+      </c>
+      <c r="L14" s="1">
+        <v>54</v>
+      </c>
+      <c r="M14" s="1">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1">
+        <v>700</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="1"/>
+        <v>70.285714285714278</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PASSED</v>
+      </c>
+      <c r="S14" s="1">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1">
+        <v>88</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1">
         <v>65</v>
       </c>
-      <c r="H9" s="33">
-        <v>100</v>
-      </c>
-      <c r="I9" s="33">
-        <v>38</v>
-      </c>
-      <c r="J9" s="33">
-        <v>59</v>
-      </c>
-      <c r="K9" s="33">
-        <v>42</v>
-      </c>
-      <c r="L9" s="33">
-        <v>74</v>
-      </c>
-      <c r="M9" s="33">
-        <v>81</v>
-      </c>
-      <c r="N9" s="33">
+      <c r="K15" s="1">
+        <v>48</v>
+      </c>
+      <c r="L15" s="1">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1">
+        <v>87</v>
+      </c>
+      <c r="N15" s="1">
         <v>700</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>459</v>
-      </c>
-      <c r="P9" s="35">
+        <v>483</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="1"/>
-        <v>65.571428571428569</v>
-      </c>
-      <c r="Q9" s="33" t="str">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
-      <c r="R9" s="33" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PASSED</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S15" s="1">
+        <v>9</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="56">
-        <v>38</v>
-      </c>
-      <c r="C10" s="33">
-        <v>4</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="33">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="33">
-        <v>89</v>
-      </c>
-      <c r="H10" s="33">
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1">
         <v>83</v>
       </c>
-      <c r="I10" s="33">
-        <v>100</v>
-      </c>
-      <c r="J10" s="33">
-        <v>85</v>
-      </c>
-      <c r="K10" s="33">
-        <v>100</v>
-      </c>
-      <c r="L10" s="33">
-        <v>75</v>
-      </c>
-      <c r="M10" s="33">
-        <v>82</v>
-      </c>
-      <c r="N10" s="33">
+      <c r="I16" s="1">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1">
+        <v>66</v>
+      </c>
+      <c r="K16" s="1">
+        <v>35</v>
+      </c>
+      <c r="L16" s="1">
+        <v>81</v>
+      </c>
+      <c r="M16" s="1">
+        <v>88</v>
+      </c>
+      <c r="N16" s="1">
         <v>700</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O16" s="1">
         <f t="shared" si="0"/>
-        <v>614</v>
-      </c>
-      <c r="P10" s="35">
+        <v>470</v>
+      </c>
+      <c r="P16" s="3">
         <f t="shared" si="1"/>
-        <v>87.714285714285708</v>
-      </c>
-      <c r="Q10" s="33" t="str">
+        <v>67.142857142857139</v>
+      </c>
+      <c r="Q16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>A+</v>
-      </c>
-      <c r="R10" s="33" t="str">
+        <v>B</v>
+      </c>
+      <c r="R16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PASSED</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="56">
-        <v>39</v>
-      </c>
-      <c r="C11" s="33">
-        <v>5</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="S16" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="33">
-        <v>67</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="T16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1">
         <v>84</v>
       </c>
-      <c r="I11" s="33">
-        <v>40</v>
-      </c>
-      <c r="J11" s="33">
-        <v>61</v>
-      </c>
-      <c r="K11" s="33">
-        <v>44</v>
-      </c>
-      <c r="L11" s="33">
-        <v>76</v>
-      </c>
-      <c r="M11" s="33">
-        <v>83</v>
-      </c>
-      <c r="N11" s="33">
+      <c r="I17" s="1">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1">
+        <v>58</v>
+      </c>
+      <c r="K17" s="1">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1">
+        <v>89</v>
+      </c>
+      <c r="N17" s="1">
         <v>700</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O17" s="1">
         <f t="shared" si="0"/>
-        <v>455</v>
-      </c>
-      <c r="P11" s="35">
+        <v>416</v>
+      </c>
+      <c r="P17" s="3">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="Q11" s="33" t="str">
+        <v>59.428571428571431</v>
+      </c>
+      <c r="Q17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="R11" s="33" t="str">
+        <v>C</v>
+      </c>
+      <c r="R17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PASSED</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S17" s="1">
+        <v>11</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>82</v>
+      </c>
+      <c r="H18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="56">
-        <v>40</v>
-      </c>
-      <c r="C12" s="33">
-        <v>6</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="33">
-        <v>10</v>
-      </c>
-      <c r="G12" s="33">
-        <v>68</v>
-      </c>
-      <c r="H12" s="33">
-        <v>85</v>
-      </c>
-      <c r="I12" s="33">
-        <v>91</v>
-      </c>
-      <c r="J12" s="33">
-        <v>62</v>
-      </c>
-      <c r="K12" s="33">
-        <v>86</v>
-      </c>
-      <c r="L12" s="33">
-        <v>77</v>
-      </c>
-      <c r="M12" s="33">
-        <v>100</v>
-      </c>
-      <c r="N12" s="33">
+      <c r="I18" s="1">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1">
+        <v>46</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45</v>
+      </c>
+      <c r="L18" s="1">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1">
+        <v>57</v>
+      </c>
+      <c r="N18" s="1">
         <v>700</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O18" s="1">
         <f t="shared" si="0"/>
-        <v>569</v>
-      </c>
-      <c r="P12" s="35">
+        <v>344</v>
+      </c>
+      <c r="P18" s="3">
         <f t="shared" si="1"/>
-        <v>81.285714285714278</v>
-      </c>
-      <c r="Q12" s="33" t="str">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="Q18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>A+</v>
-      </c>
-      <c r="R12" s="33" t="str">
+        <v>D</v>
+      </c>
+      <c r="R18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PASSED</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S18" s="1">
+        <v>12</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="56">
-        <v>41</v>
-      </c>
-      <c r="C13" s="33">
-        <v>7</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="33">
-        <v>10</v>
-      </c>
-      <c r="G13" s="33">
-        <v>69</v>
-      </c>
-      <c r="H13" s="33">
-        <v>86</v>
-      </c>
-      <c r="I13" s="33">
-        <v>100</v>
-      </c>
-      <c r="J13" s="33">
-        <v>63</v>
-      </c>
-      <c r="K13" s="33">
-        <v>46</v>
-      </c>
-      <c r="L13" s="33">
-        <v>85</v>
-      </c>
-      <c r="M13" s="33">
-        <v>85</v>
-      </c>
-      <c r="N13" s="33">
+      <c r="J19" s="1">
+        <v>37</v>
+      </c>
+      <c r="K19" s="1">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1">
         <v>700</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O19" s="1">
         <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
-      <c r="P13" s="35">
+        <v>265</v>
+      </c>
+      <c r="P19" s="3">
         <f t="shared" si="1"/>
-        <v>76.285714285714292</v>
-      </c>
-      <c r="Q13" s="33" t="str">
+        <v>37.857142857142854</v>
+      </c>
+      <c r="Q19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="R13" s="33" t="str">
+        <v>F</v>
+      </c>
+      <c r="R19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="56">
-        <v>42</v>
-      </c>
-      <c r="C14" s="33">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="33">
-        <v>10</v>
-      </c>
-      <c r="G14" s="33">
-        <v>100</v>
-      </c>
-      <c r="H14" s="33">
-        <v>87</v>
-      </c>
-      <c r="I14" s="33">
-        <v>43</v>
-      </c>
-      <c r="J14" s="33">
-        <v>64</v>
-      </c>
-      <c r="K14" s="33">
-        <v>47</v>
-      </c>
-      <c r="L14" s="33">
-        <v>54</v>
-      </c>
-      <c r="M14" s="33">
-        <v>86</v>
-      </c>
-      <c r="N14" s="33">
+        <v>FAILED</v>
+      </c>
+      <c r="S19" s="1">
+        <v>13</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
+        <v>28</v>
+      </c>
+      <c r="L20" s="1">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1">
+        <v>37</v>
+      </c>
+      <c r="N20" s="1">
         <v>700</v>
       </c>
-      <c r="O14" s="33">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-      <c r="P14" s="35">
-        <f t="shared" si="1"/>
-        <v>68.714285714285722</v>
-      </c>
-      <c r="Q14" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="R14" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="56">
-        <v>43</v>
-      </c>
-      <c r="C15" s="33">
-        <v>9</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="33">
-        <v>10</v>
-      </c>
-      <c r="G15" s="33">
-        <v>71</v>
-      </c>
-      <c r="H15" s="33">
-        <v>88</v>
-      </c>
-      <c r="I15" s="33">
-        <v>44</v>
-      </c>
-      <c r="J15" s="33">
-        <v>65</v>
-      </c>
-      <c r="K15" s="33">
-        <v>48</v>
-      </c>
-      <c r="L15" s="33">
-        <v>80</v>
-      </c>
-      <c r="M15" s="33">
-        <v>87</v>
-      </c>
-      <c r="N15" s="33">
-        <v>700</v>
-      </c>
-      <c r="O15" s="33">
-        <f t="shared" si="0"/>
-        <v>483</v>
-      </c>
-      <c r="P15" s="35">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="Q15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="R15" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="56">
-        <v>44</v>
-      </c>
-      <c r="C16" s="33">
-        <v>10</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="33">
-        <v>10</v>
-      </c>
-      <c r="G16" s="33">
-        <v>72</v>
-      </c>
-      <c r="H16" s="33">
-        <v>89</v>
-      </c>
-      <c r="I16" s="33">
-        <v>45</v>
-      </c>
-      <c r="J16" s="33">
-        <v>66</v>
-      </c>
-      <c r="K16" s="33">
-        <v>49</v>
-      </c>
-      <c r="L16" s="33">
-        <v>81</v>
-      </c>
-      <c r="M16" s="33">
-        <v>88</v>
-      </c>
-      <c r="N16" s="33">
-        <v>700</v>
-      </c>
-      <c r="O16" s="33">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="P16" s="35">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="Q16" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="R16" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S16" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="56">
-        <v>45</v>
-      </c>
-      <c r="C17" s="33">
-        <v>11</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="33">
-        <v>10</v>
-      </c>
-      <c r="G17" s="33">
-        <v>73</v>
-      </c>
-      <c r="H17" s="33">
-        <v>90</v>
-      </c>
-      <c r="I17" s="33">
-        <v>46</v>
-      </c>
-      <c r="J17" s="33">
-        <v>67</v>
-      </c>
-      <c r="K17" s="33">
-        <v>50</v>
-      </c>
-      <c r="L17" s="33">
-        <v>82</v>
-      </c>
-      <c r="M17" s="33">
-        <v>89</v>
-      </c>
-      <c r="N17" s="33">
-        <v>700</v>
-      </c>
-      <c r="O17" s="33">
-        <f t="shared" si="0"/>
-        <v>497</v>
-      </c>
-      <c r="P17" s="35">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Q17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="R17" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="56">
-        <v>46</v>
-      </c>
-      <c r="C18" s="33">
-        <v>12</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="33">
-        <v>10</v>
-      </c>
-      <c r="G18" s="33">
-        <v>74</v>
-      </c>
-      <c r="H18" s="33">
-        <v>55</v>
-      </c>
-      <c r="I18" s="33">
-        <v>47</v>
-      </c>
-      <c r="J18" s="33">
-        <v>53</v>
-      </c>
-      <c r="K18" s="33">
-        <v>45</v>
-      </c>
-      <c r="L18" s="33">
-        <v>75</v>
-      </c>
-      <c r="M18" s="33">
-        <v>61</v>
-      </c>
-      <c r="N18" s="33">
-        <v>700</v>
-      </c>
-      <c r="O18" s="33">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="P18" s="35">
-        <f t="shared" si="1"/>
-        <v>58.571428571428577</v>
-      </c>
-      <c r="Q18" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="R18" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="56">
-        <v>47</v>
-      </c>
-      <c r="C19" s="33">
-        <v>13</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="33">
-        <v>10</v>
-      </c>
-      <c r="G19" s="33">
-        <v>75</v>
-      </c>
-      <c r="H19" s="33">
-        <v>92</v>
-      </c>
-      <c r="I19" s="33">
-        <v>48</v>
-      </c>
-      <c r="J19" s="33">
-        <v>69</v>
-      </c>
-      <c r="K19" s="33">
-        <v>100</v>
-      </c>
-      <c r="L19" s="33">
-        <v>84</v>
-      </c>
-      <c r="M19" s="33">
-        <v>91</v>
-      </c>
-      <c r="N19" s="33">
-        <v>700</v>
-      </c>
-      <c r="O19" s="33">
-        <f t="shared" si="0"/>
-        <v>559</v>
-      </c>
-      <c r="P19" s="35">
-        <f t="shared" si="1"/>
-        <v>79.857142857142861</v>
-      </c>
-      <c r="Q19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="R19" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>PASSED</v>
-      </c>
-      <c r="S19" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="56">
-        <v>48</v>
-      </c>
-      <c r="C20" s="33">
-        <v>14</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="33">
-        <v>10</v>
-      </c>
-      <c r="G20" s="33">
-        <v>21</v>
-      </c>
-      <c r="H20" s="33">
-        <v>15</v>
-      </c>
-      <c r="I20" s="33">
-        <v>32</v>
-      </c>
-      <c r="J20" s="33">
-        <v>9</v>
-      </c>
-      <c r="K20" s="33">
-        <v>28</v>
-      </c>
-      <c r="L20" s="33">
-        <v>35</v>
-      </c>
-      <c r="M20" s="33">
-        <v>37</v>
-      </c>
-      <c r="N20" s="33">
-        <v>700</v>
-      </c>
-      <c r="O20" s="33">
+      <c r="O20" s="1">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="3">
         <f t="shared" si="1"/>
         <v>25.285714285714285</v>
       </c>
-      <c r="Q20" s="33" t="str">
+      <c r="Q20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="R20" s="33" t="str">
+      <c r="R20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>FAILED</v>
       </c>
-      <c r="S20" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57">
+      <c r="S20" s="1">
+        <v>14</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17">
         <v>49</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="4">
         <v>15</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="36">
-        <v>10</v>
-      </c>
-      <c r="G21" s="36">
-        <v>30</v>
-      </c>
-      <c r="H21" s="36">
-        <v>39</v>
-      </c>
-      <c r="I21" s="36">
-        <v>45</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>25</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27</v>
+      </c>
+      <c r="J21" s="4">
         <v>29</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="4">
         <v>17</v>
       </c>
-      <c r="L21" s="36">
-        <v>34</v>
-      </c>
-      <c r="M21" s="36">
-        <v>45</v>
-      </c>
-      <c r="N21" s="33">
+      <c r="L21" s="4">
+        <v>8</v>
+      </c>
+      <c r="M21" s="4">
+        <v>40</v>
+      </c>
+      <c r="N21" s="4">
         <v>700</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="4">
         <f>SUM(M21,L21,K21,J21,I21,H21,G21)</f>
-        <v>239</v>
-      </c>
-      <c r="P21" s="35">
+        <v>159</v>
+      </c>
+      <c r="P21" s="82">
         <f t="shared" si="1"/>
-        <v>34.142857142857139</v>
-      </c>
-      <c r="Q21" s="36" t="str">
+        <v>22.714285714285715</v>
+      </c>
+      <c r="Q21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="R21" s="36" t="str">
+      <c r="R21" s="4" t="str">
         <f t="shared" si="3"/>
         <v>FAILED</v>
       </c>
-      <c r="S21" s="37" t="s">
-        <v>69</v>
+      <c r="S21" s="4">
+        <v>15</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P6"/>
@@ -4382,12 +4405,8 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4398,7 +4417,7 @@
   <dimension ref="A3:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,84 +4443,84 @@
   <sheetData>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="45" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>35</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="38">
         <v>10</v>
       </c>
       <c r="E6" s="43">
@@ -4528,760 +4547,760 @@
       <c r="L6" s="43">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
-        <v>0</v>
-      </c>
-      <c r="N6" s="43">
+      <c r="M6" s="44">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
         <f>SUM(E6,H6,K6)</f>
         <v>81</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="29">
         <f>SUM(F6,I6,L6)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="30">
         <f>SUM(G6,J6,M6)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
         <v>36</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="40">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="40">
         <v>10</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="45">
         <v>25</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="45">
         <v>6</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="45">
         <v>4</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="45">
         <v>27</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="45">
         <v>1</v>
       </c>
-      <c r="J7" s="29">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
         <v>31</v>
       </c>
-      <c r="L7" s="29">
-        <v>0</v>
-      </c>
-      <c r="M7" s="29">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
         <f t="shared" ref="N7:N20" si="0">SUM(E7,H7,K7)</f>
         <v>83</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="32">
         <f t="shared" ref="O7:O20" si="1">SUM(F7,I7,L7)</f>
         <v>7</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="33">
         <f t="shared" ref="P7:P20" si="2">SUM(G7,J7,M7)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>37</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="40">
         <v>10</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="45">
         <v>31</v>
       </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
         <v>28</v>
       </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="45">
         <v>25</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="45">
         <v>6</v>
       </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="M8" s="46">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <v>38</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="40">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="40">
         <v>10</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="45">
         <v>31</v>
       </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
         <v>28</v>
       </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
         <v>31</v>
       </c>
-      <c r="L9" s="29">
-        <v>0</v>
-      </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46">
+        <v>0</v>
+      </c>
+      <c r="N9" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>39</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="40">
         <v>5</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="40">
         <v>10</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="45">
         <v>31</v>
       </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
         <v>28</v>
       </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <v>0</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0</v>
+      </c>
+      <c r="K10" s="45">
         <v>31</v>
       </c>
-      <c r="L10" s="29">
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <v>40</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="40">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="40">
         <v>10</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="45">
         <v>31</v>
       </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
         <v>28</v>
       </c>
-      <c r="I11" s="29">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
-        <v>0</v>
-      </c>
-      <c r="K11" s="29">
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0</v>
+      </c>
+      <c r="K11" s="45">
         <v>31</v>
       </c>
-      <c r="L11" s="29">
-        <v>0</v>
-      </c>
-      <c r="M11" s="29">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <v>41</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="40">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="40">
         <v>10</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="45">
         <v>31</v>
       </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="F12" s="45">
+        <v>0</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
         <v>28</v>
       </c>
-      <c r="I12" s="29">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
-        <v>0</v>
-      </c>
-      <c r="K12" s="29">
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0</v>
+      </c>
+      <c r="K12" s="45">
         <v>31</v>
       </c>
-      <c r="L12" s="29">
-        <v>0</v>
-      </c>
-      <c r="M12" s="29">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>42</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="40">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="40">
         <v>10</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="45">
         <v>23</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="45">
         <v>8</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="45">
         <v>7</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="45">
         <v>28</v>
       </c>
-      <c r="I13" s="29">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <v>0</v>
+      </c>
+      <c r="K13" s="45">
         <v>31</v>
       </c>
-      <c r="L13" s="29">
-        <v>0</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="32">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>43</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="40">
         <v>9</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="40">
         <v>10</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="45">
         <v>31</v>
       </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="F14" s="45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
         <v>28</v>
       </c>
-      <c r="I14" s="29">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29">
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="45">
+        <v>0</v>
+      </c>
+      <c r="K14" s="45">
         <v>31</v>
       </c>
-      <c r="L14" s="29">
-        <v>0</v>
-      </c>
-      <c r="M14" s="29">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+      <c r="M14" s="46">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>44</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="40">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="40">
         <v>10</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="45">
         <v>28</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="45">
         <v>3</v>
       </c>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="G15" s="45">
+        <v>0</v>
+      </c>
+      <c r="H15" s="45">
         <v>25</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="45">
         <v>3</v>
       </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="J15" s="45">
+        <v>0</v>
+      </c>
+      <c r="K15" s="45">
         <v>23</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="45">
         <v>8</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <v>7</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="31">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="32">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>45</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="40">
         <v>11</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="40">
         <v>10</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="45">
         <v>21</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="45">
         <v>10</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="45">
         <v>6</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="45">
         <v>27</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="45">
         <v>1</v>
       </c>
-      <c r="J16" s="29">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29">
+      <c r="J16" s="45">
+        <v>0</v>
+      </c>
+      <c r="K16" s="45">
         <v>16</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="45">
         <v>15</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="46">
         <v>9</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="31">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="32">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="33">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>46</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="40">
         <v>12</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="40">
         <v>10</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="45">
         <v>31</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="F17" s="45">
+        <v>0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
         <v>26</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="45">
         <v>2</v>
       </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="J17" s="45">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45">
         <v>24</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="45">
         <v>7</v>
       </c>
-      <c r="M17" s="29">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25">
+      <c r="M17" s="46">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="32">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>47</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="40">
         <v>13</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="40">
         <v>10</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="45">
         <v>24</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="45">
         <v>7</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="45">
         <v>2</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="45">
         <v>28</v>
       </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
-        <v>0</v>
-      </c>
-      <c r="K18" s="29">
+      <c r="I18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
+        <v>0</v>
+      </c>
+      <c r="K18" s="45">
         <v>31</v>
       </c>
-      <c r="L18" s="29">
-        <v>0</v>
-      </c>
-      <c r="M18" s="29">
-        <v>0</v>
-      </c>
-      <c r="N18" s="25">
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+      <c r="M18" s="46">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <v>48</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="40">
         <v>14</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="40">
         <v>10</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="45">
         <v>21</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="45">
         <v>10</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="45">
         <v>8</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="45">
         <v>27</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="45">
         <v>1</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="45">
         <v>1</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="45">
         <v>31</v>
       </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="29">
-        <v>0</v>
-      </c>
-      <c r="N19" s="25">
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+      <c r="M19" s="46">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="33">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="41">
         <v>49</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="42">
         <v>15</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="42">
         <v>10</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="47">
         <v>27</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="47">
         <v>4</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="47">
         <v>4</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="47">
         <v>20</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="47">
         <v>8</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="47">
         <v>3</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="47">
         <v>31</v>
       </c>
-      <c r="L20" s="32">
-        <v>0</v>
-      </c>
-      <c r="M20" s="32">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
+      <c r="L20" s="47">
+        <v>0</v>
+      </c>
+      <c r="M20" s="48">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="36">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -5302,7 +5321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C963BB1-25BB-47A8-886B-A194D64256AB}">
-  <dimension ref="B1:J36"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -5313,594 +5332,570 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+    <row r="1" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="55"/>
+      <c r="C11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E11" s="57">
+        <v>39</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
+      <c r="C12" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="str">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,3,)</f>
-        <v>Zubair Khalid</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="E12" s="57" t="str">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,3,)</f>
+        <v>Aqsa Asad</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="str">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,4,)</f>
-        <v>Muhammad Khalid</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="E13" s="57" t="str">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,4,)</f>
+        <v>Asad Irshad</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="55"/>
+      <c r="C14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,5,)</f>
-        <v>10</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6" t="s">
+      <c r="E14" s="58">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,5,)</f>
+        <v>9</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="55"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10" t="s">
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="55"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="50">
         <v>100</v>
       </c>
-      <c r="G17" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,6,)</f>
-        <v>21</v>
-      </c>
-      <c r="H17" s="12" t="str">
+      <c r="G17" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,6,)</f>
+        <v>81</v>
+      </c>
+      <c r="H17" s="51" t="str">
         <f>IF(G17&gt;=40, "PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10" t="s">
+        <v>PASS</v>
+      </c>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="55"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="50">
         <v>100</v>
       </c>
-      <c r="G18" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,7,)</f>
-        <v>15</v>
-      </c>
-      <c r="H18" s="12" t="str">
+      <c r="G18" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,7,)</f>
+        <v>93</v>
+      </c>
+      <c r="H18" s="51" t="str">
         <f t="shared" ref="H18:H23" si="0">IF(G18&gt;=40, "PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
+        <v>PASS</v>
+      </c>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="50">
         <v>100</v>
       </c>
-      <c r="G19" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,8,)</f>
-        <v>32</v>
-      </c>
-      <c r="H19" s="12" t="str">
+      <c r="G19" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,8,)</f>
+        <v>71</v>
+      </c>
+      <c r="H19" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10" t="s">
+        <v>PASS</v>
+      </c>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="55"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="50">
         <v>100</v>
       </c>
-      <c r="G20" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,9,)</f>
+      <c r="G20" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,9,)</f>
+        <v>84</v>
+      </c>
+      <c r="H20" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="55"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="50">
+        <v>100</v>
+      </c>
+      <c r="G21" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,10,)</f>
+        <v>79</v>
+      </c>
+      <c r="H21" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="55"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="50">
+        <v>100</v>
+      </c>
+      <c r="G22" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,11,)</f>
+        <v>91</v>
+      </c>
+      <c r="H22" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="55"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="50">
+        <v>100</v>
+      </c>
+      <c r="G23" s="50">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,12,)</f>
+        <v>100</v>
+      </c>
+      <c r="H23" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="11">
-        <v>100</v>
-      </c>
-      <c r="G21" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,10,)</f>
+      <c r="F24" s="53">
+        <v>700</v>
+      </c>
+      <c r="G24" s="53">
+        <f>SUM(G17,G18,G19,G20,G21,G22,G23)</f>
+        <v>599</v>
+      </c>
+      <c r="H24" s="54" t="str">
+        <f>VLOOKUP(E11, MarkSheet!B5:U21,17)</f>
+        <v>PASSED</v>
+      </c>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="55"/>
+      <c r="C26" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="55"/>
+      <c r="C27" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="50">
+        <f>VLOOKUP(E11,Attendance!A4:M20,5,)</f>
+        <v>31</v>
+      </c>
+      <c r="F27" s="50">
+        <f>VLOOKUP(E11,Attendance!A4:M20,8,)</f>
         <v>28</v>
       </c>
-      <c r="H21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11">
-        <v>100</v>
-      </c>
-      <c r="G22" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,11,)</f>
-        <v>35</v>
-      </c>
-      <c r="H22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="11">
-        <v>100</v>
-      </c>
-      <c r="G23" s="11">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,12,)</f>
-        <v>37</v>
-      </c>
-      <c r="H23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="14">
-        <v>700</v>
-      </c>
-      <c r="G24" s="14">
-        <f>SUM(G17,G18,G19,G20,G21,G22,G23)</f>
-        <v>177</v>
-      </c>
-      <c r="H24" s="15" t="str">
-        <f>VLOOKUP(E11, MarkSheet!B5:S21,17)</f>
-        <v>FAILED</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="18">
-        <f>VLOOKUP(E11,Attendance!A4:M20,5,)</f>
-        <v>21</v>
-      </c>
-      <c r="F27" s="18">
-        <f>VLOOKUP(E11,Attendance!A4:M20,8,)</f>
-        <v>27</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="G27" s="50">
         <f>VLOOKUP(E11,Attendance!A4:M20,11,)</f>
         <v>31</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="51">
         <f>SUM(E27,F27,G27)</f>
-        <v>79</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="18">
+        <v>90</v>
+      </c>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="55"/>
+      <c r="C28" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="50">
         <f>VLOOKUP(E11,Attendance!A4:M20,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
         <f>VLOOKUP(E11,Attendance!A4:M20,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="50">
         <f>VLOOKUP(E11,Attendance!A4:M20,12,)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="51">
         <f>SUM(E28,F28,G28)</f>
-        <v>11</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="55"/>
+      <c r="C29" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95">
         <f>VLOOKUP(E11,Attendance!A4:M20,7,)</f>
-        <v>8</v>
-      </c>
-      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29" s="95">
         <f>VLOOKUP(E11,Attendance!A4:M20,10,)</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="95">
         <f>VLOOKUP(E11,Attendance!A4:M20,13,)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="67">
         <f>SUM(E29,F29,G29)</f>
-        <v>9</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="22">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,15,)</f>
-        <v>25.285714285714285</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="80" t="s">
+      <c r="D30" s="84"/>
+      <c r="E30" s="85">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,15,)</f>
+        <v>85.571428571428569</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="96">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,18,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="23" t="str">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,16,)</f>
-        <v>F</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="70" t="s">
+      <c r="D31" s="70"/>
+      <c r="E31" s="72" t="str">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,16,)</f>
+        <v>A+</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="97" t="str">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,19,FALSE)</f>
+        <v>Class 10</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="55"/>
+      <c r="C32" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="24" t="str">
-        <f>VLOOKUP(E11,MarkSheet!B5:S21,18,FALSE)</f>
-        <v>Needs Improvement</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75" t="str">
+        <f>VLOOKUP(E11,MarkSheet!B5:U21,20,FALSE)</f>
+        <v>Excellent</v>
+      </c>
+      <c r="F32" s="68"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E32:F32"/>
+  <mergeCells count="8">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
